--- a/Code/Results/Cases/Case_9_28/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_9_28/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1277 +421,1427 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>20.74443210445851</v>
+        <v>20.76576726462879</v>
       </c>
       <c r="C2">
-        <v>15.30455049811454</v>
+        <v>15.43130917909434</v>
       </c>
       <c r="D2">
-        <v>7.317473362639923</v>
+        <v>7.365371891328898</v>
       </c>
       <c r="E2">
-        <v>9.879497825848809</v>
+        <v>9.896593805364645</v>
       </c>
       <c r="F2">
-        <v>19.67424486943456</v>
+        <v>19.44678103287279</v>
       </c>
       <c r="G2">
-        <v>20.1489470545646</v>
+        <v>19.06742078288421</v>
       </c>
       <c r="H2">
-        <v>1.714403655630426</v>
+        <v>1.693644279917012</v>
       </c>
       <c r="I2">
-        <v>2.494810856704444</v>
+        <v>2.567541334866889</v>
       </c>
       <c r="J2">
-        <v>8.470038591499007</v>
+        <v>8.879092084366331</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>6.445835092661599</v>
+        <v>10.65529143595633</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>7.30492832962097</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>6.442546649889022</v>
       </c>
       <c r="O2">
-        <v>15.52745647070712</v>
+        <v>0</v>
       </c>
       <c r="P2">
         <v>0</v>
       </c>
       <c r="Q2">
-        <v>13.52659935640481</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>15.60869090315853</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>13.34120678773573</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.40683381289817</v>
+        <v>19.44277924466498</v>
       </c>
       <c r="C3">
-        <v>14.47870738213567</v>
+        <v>14.49087917269775</v>
       </c>
       <c r="D3">
-        <v>7.066679917932819</v>
+        <v>7.112685666887877</v>
       </c>
       <c r="E3">
-        <v>9.649294338892886</v>
+        <v>9.677847756052673</v>
       </c>
       <c r="F3">
-        <v>19.45300263354642</v>
+        <v>19.25949665485691</v>
       </c>
       <c r="G3">
-        <v>19.89053041726756</v>
+        <v>18.88294289467298</v>
       </c>
       <c r="H3">
-        <v>1.923015530609564</v>
+        <v>1.892872567283174</v>
       </c>
       <c r="I3">
-        <v>2.604757502174628</v>
+        <v>2.516516053796178</v>
       </c>
       <c r="J3">
-        <v>8.524339075017846</v>
+        <v>8.905836874822711</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>6.389484970433744</v>
+        <v>10.86935781016236</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>7.540822043580002</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>6.393294816133506</v>
       </c>
       <c r="O3">
-        <v>14.64934227628368</v>
+        <v>0</v>
       </c>
       <c r="P3">
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>13.54364158564438</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>14.7128113706601</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>13.37701993161158</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.53554457151143</v>
+        <v>18.58120811645421</v>
       </c>
       <c r="C4">
-        <v>13.95187575388711</v>
+        <v>13.88908526995467</v>
       </c>
       <c r="D4">
-        <v>6.909331350369421</v>
+        <v>6.954521569772018</v>
       </c>
       <c r="E4">
-        <v>9.504847142116175</v>
+        <v>9.540904039506586</v>
       </c>
       <c r="F4">
-        <v>19.3251715287958</v>
+        <v>19.15100092101933</v>
       </c>
       <c r="G4">
-        <v>19.745352866259</v>
+        <v>18.78427518873407</v>
       </c>
       <c r="H4">
-        <v>2.055741304599974</v>
+        <v>2.019669752960568</v>
       </c>
       <c r="I4">
-        <v>2.704577868217384</v>
+        <v>2.604965976062738</v>
       </c>
       <c r="J4">
-        <v>8.561123514619148</v>
+        <v>8.923700058723863</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>6.353854324675491</v>
+        <v>11.00720927563569</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>7.702391117055766</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>6.362137630313243</v>
       </c>
       <c r="O4">
-        <v>14.0838071289375</v>
+        <v>0</v>
       </c>
       <c r="P4">
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>13.5617053409106</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>14.13561280020629</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>13.40505492346922</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.16690291309585</v>
+        <v>18.21676468152824</v>
       </c>
       <c r="C5">
-        <v>13.74682314932923</v>
+        <v>13.652091290012</v>
       </c>
       <c r="D5">
-        <v>6.845994662583873</v>
+        <v>6.890875645072754</v>
       </c>
       <c r="E5">
-        <v>9.445098686530127</v>
+        <v>9.484334152565854</v>
       </c>
       <c r="F5">
-        <v>19.26678316098843</v>
+        <v>19.10044296240237</v>
       </c>
       <c r="G5">
-        <v>19.67445705504359</v>
+        <v>18.73283128489532</v>
       </c>
       <c r="H5">
-        <v>2.111173955889821</v>
+        <v>2.072637815737955</v>
       </c>
       <c r="I5">
-        <v>2.749299520686184</v>
+        <v>2.645565337571887</v>
       </c>
       <c r="J5">
-        <v>8.574584295273395</v>
+        <v>8.929079554442795</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>6.338605143077447</v>
+        <v>11.06049035938701</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>7.770923762451776</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>6.348760738112576</v>
       </c>
       <c r="O5">
-        <v>13.85013950590053</v>
+        <v>0</v>
       </c>
       <c r="P5">
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>13.56487185442688</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>13.89686927531775</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>13.41215731833642</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.10371021170966</v>
+        <v>18.1543225886062</v>
       </c>
       <c r="C6">
-        <v>13.7302026165976</v>
+        <v>13.62978163015239</v>
       </c>
       <c r="D6">
-        <v>6.837337906894131</v>
+        <v>6.88208516944955</v>
       </c>
       <c r="E6">
-        <v>9.43495743460409</v>
+        <v>9.474732534128965</v>
       </c>
       <c r="F6">
-        <v>19.24705052368873</v>
+        <v>19.08241229017989</v>
       </c>
       <c r="G6">
-        <v>19.64445253154495</v>
+        <v>18.70643626473209</v>
       </c>
       <c r="H6">
-        <v>2.120649758131802</v>
+        <v>2.081695405688218</v>
       </c>
       <c r="I6">
-        <v>2.760660464764182</v>
+        <v>2.656958841842885</v>
       </c>
       <c r="J6">
-        <v>8.573973936422952</v>
+        <v>8.927239721864739</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>6.335483767914488</v>
+        <v>11.06396689706244</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>7.780895567534148</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>6.345977398961439</v>
       </c>
       <c r="O6">
-        <v>13.81498276391387</v>
+        <v>0</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>13.55813079147531</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>13.86068589557598</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>13.40636232725933</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.52737665123162</v>
+        <v>18.57288226425025</v>
       </c>
       <c r="C7">
-        <v>13.99663956617598</v>
+        <v>13.92926505880384</v>
       </c>
       <c r="D7">
-        <v>6.913620173026286</v>
+        <v>6.961894937683147</v>
       </c>
       <c r="E7">
-        <v>9.503579851193841</v>
+        <v>9.540364048483898</v>
       </c>
       <c r="F7">
-        <v>19.29676795150304</v>
+        <v>19.10968295198705</v>
       </c>
       <c r="G7">
-        <v>19.69427184440964</v>
+        <v>18.8109979523306</v>
       </c>
       <c r="H7">
-        <v>2.057014980064593</v>
+        <v>2.021390636152923</v>
       </c>
       <c r="I7">
-        <v>2.715434511782743</v>
+        <v>2.618139347954002</v>
       </c>
       <c r="J7">
-        <v>8.553401960092073</v>
+        <v>8.882868911107163</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>6.352101333729873</v>
+        <v>10.98866717000567</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>7.696624212286815</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>6.359934044155064</v>
       </c>
       <c r="O7">
-        <v>14.09145160992557</v>
+        <v>0</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>13.54162257887121</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>14.14311994543345</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>13.37550715403081</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.28964511762985</v>
+        <v>20.31504345039083</v>
       </c>
       <c r="C8">
-        <v>15.08308136897814</v>
+        <v>15.15999589948331</v>
       </c>
       <c r="D8">
-        <v>7.238263876659516</v>
+        <v>7.295826209896273</v>
       </c>
       <c r="E8">
-        <v>9.800253216907485</v>
+        <v>9.82353039832536</v>
       </c>
       <c r="F8">
-        <v>19.56045585300695</v>
+        <v>19.30032999884009</v>
       </c>
       <c r="G8">
-        <v>19.99197570822129</v>
+        <v>19.18936949380181</v>
       </c>
       <c r="H8">
-        <v>1.786022952127927</v>
+        <v>1.763564774554496</v>
       </c>
       <c r="I8">
-        <v>2.515082955627017</v>
+        <v>2.525198605913181</v>
       </c>
       <c r="J8">
-        <v>8.477618206025172</v>
+        <v>8.76928363425441</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>6.424648332451794</v>
+        <v>10.69741258286377</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>7.365683816961968</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>6.42217159724576</v>
       </c>
       <c r="O8">
-        <v>15.24344581689846</v>
+        <v>0</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>13.50439653964573</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>15.31930334282496</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>13.29278731074169</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>23.35497276591295</v>
+        <v>23.34722653160395</v>
       </c>
       <c r="C9">
-        <v>16.97453880422574</v>
+        <v>17.31099430685661</v>
       </c>
       <c r="D9">
-        <v>7.836681763083251</v>
+        <v>7.90290359812215</v>
       </c>
       <c r="E9">
-        <v>10.35648607652579</v>
+        <v>10.35447503763879</v>
       </c>
       <c r="F9">
-        <v>20.18931403011909</v>
+        <v>19.82464793388786</v>
       </c>
       <c r="G9">
-        <v>20.7721163900538</v>
+        <v>19.8532051063169</v>
       </c>
       <c r="H9">
-        <v>1.824777742499173</v>
+        <v>1.824447429153363</v>
       </c>
       <c r="I9">
-        <v>2.807542607834495</v>
+        <v>2.844171781826664</v>
       </c>
       <c r="J9">
-        <v>8.371657488817945</v>
+        <v>8.689632502597679</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>6.561395342464128</v>
+        <v>10.21696794146387</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>6.876323297634741</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>6.541489562134867</v>
       </c>
       <c r="O9">
-        <v>17.27182350278764</v>
+        <v>0</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>13.53070795852262</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>17.38813696703208</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>13.25340118025753</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>25.38872699661476</v>
+        <v>25.3588681088975</v>
       </c>
       <c r="C10">
-        <v>18.29896551316249</v>
+        <v>18.77303269289134</v>
       </c>
       <c r="D10">
-        <v>8.186126838601831</v>
+        <v>8.274295524265552</v>
       </c>
       <c r="E10">
-        <v>10.59358840775681</v>
+        <v>10.57916744719428</v>
       </c>
       <c r="F10">
-        <v>20.5138500842805</v>
+        <v>20.00307015304593</v>
       </c>
       <c r="G10">
-        <v>21.18959228175489</v>
+        <v>20.63212224650297</v>
       </c>
       <c r="H10">
-        <v>2.150557733555416</v>
+        <v>2.132718924867265</v>
       </c>
       <c r="I10">
-        <v>3.060207324768905</v>
+        <v>3.067029322514726</v>
       </c>
       <c r="J10">
-        <v>8.276318631391828</v>
+        <v>8.427106646884553</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>6.604501520948693</v>
+        <v>9.857529008362151</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>6.553144980156897</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>6.571009684908483</v>
       </c>
       <c r="O10">
-        <v>18.53936206039429</v>
+        <v>0</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>13.49953756164665</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>18.67923065397055</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>13.11745500490472</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>26.44851808269007</v>
+        <v>26.41556096928263</v>
       </c>
       <c r="C11">
-        <v>19.09472366846727</v>
+        <v>19.47065118946761</v>
       </c>
       <c r="D11">
-        <v>7.739253245478328</v>
+        <v>7.845839616592514</v>
       </c>
       <c r="E11">
-        <v>9.474003546049047</v>
+        <v>9.455103761953408</v>
       </c>
       <c r="F11">
-        <v>19.22334213387899</v>
+        <v>18.62701836348085</v>
       </c>
       <c r="G11">
-        <v>19.59044888292345</v>
+        <v>20.05212520334531</v>
       </c>
       <c r="H11">
-        <v>2.992675465562304</v>
+        <v>2.973289705268122</v>
       </c>
       <c r="I11">
-        <v>3.151108404121251</v>
+        <v>3.146235616542819</v>
       </c>
       <c r="J11">
-        <v>7.941889906688128</v>
+        <v>7.83352038240383</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>6.268554781956355</v>
+        <v>9.542507569210231</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>6.098749650734286</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>6.235704776753908</v>
       </c>
       <c r="O11">
-        <v>18.30087922344523</v>
+        <v>0</v>
       </c>
       <c r="P11">
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>12.73953948405599</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>18.42404502265638</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>12.29919582869339</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>26.93707425077012</v>
+        <v>26.90662654993668</v>
       </c>
       <c r="C12">
-        <v>19.43992806821794</v>
+        <v>19.71314877959592</v>
       </c>
       <c r="D12">
-        <v>7.283802336081906</v>
+        <v>7.389664173590366</v>
       </c>
       <c r="E12">
-        <v>8.644613170072111</v>
+        <v>8.617721428247618</v>
       </c>
       <c r="F12">
-        <v>18.09667002014418</v>
+        <v>17.50981393558538</v>
       </c>
       <c r="G12">
-        <v>18.20022965108403</v>
+        <v>19.17674113805413</v>
       </c>
       <c r="H12">
-        <v>4.226634548278403</v>
+        <v>4.211589144689464</v>
       </c>
       <c r="I12">
-        <v>3.173378744761022</v>
+        <v>3.16396854786274</v>
       </c>
       <c r="J12">
-        <v>7.692120749274912</v>
+        <v>7.5479577498584</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>6.118375790414888</v>
+        <v>9.412103491609706</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>5.833137683146249</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>6.090509281524828</v>
       </c>
       <c r="O12">
-        <v>17.81520101479488</v>
+        <v>0</v>
       </c>
       <c r="P12">
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>12.13152801094357</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>17.91900642343737</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>11.70414159264399</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>27.02838690397688</v>
+        <v>27.00556724782349</v>
       </c>
       <c r="C13">
-        <v>19.52683251053862</v>
+        <v>19.6899712957</v>
       </c>
       <c r="D13">
-        <v>6.79447721194112</v>
+        <v>6.878658077412091</v>
       </c>
       <c r="E13">
-        <v>8.031577989551986</v>
+        <v>7.996198712105379</v>
       </c>
       <c r="F13">
-        <v>16.98263273615713</v>
+        <v>16.50887337470974</v>
       </c>
       <c r="G13">
-        <v>16.79744490126159</v>
+        <v>17.74216660247932</v>
       </c>
       <c r="H13">
-        <v>5.535521694841965</v>
+        <v>5.525124815956397</v>
       </c>
       <c r="I13">
-        <v>3.148456484055877</v>
+        <v>3.141933259169779</v>
       </c>
       <c r="J13">
-        <v>7.481592758955443</v>
+        <v>7.461759817485808</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>6.105667640917037</v>
+        <v>9.373761780475526</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>5.70032286465091</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>6.085368914561229</v>
       </c>
       <c r="O13">
-        <v>17.10813869946531</v>
+        <v>0</v>
       </c>
       <c r="P13">
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>11.57433256768316</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>17.18753048344981</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>11.23654688762852</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>26.91351591173353</v>
+        <v>26.8984152244429</v>
       </c>
       <c r="C14">
-        <v>19.48351208820482</v>
+        <v>19.56415580626195</v>
       </c>
       <c r="D14">
-        <v>6.437425551529398</v>
+        <v>6.498223768236302</v>
       </c>
       <c r="E14">
-        <v>7.758711858308424</v>
+        <v>7.720253274229218</v>
       </c>
       <c r="F14">
-        <v>16.20806269929506</v>
+        <v>15.85475195925735</v>
       </c>
       <c r="G14">
-        <v>15.79917266194426</v>
+        <v>16.48257757035557</v>
       </c>
       <c r="H14">
-        <v>6.47738416273963</v>
+        <v>6.469862848991833</v>
       </c>
       <c r="I14">
-        <v>3.110844688591435</v>
+        <v>3.109984137103807</v>
       </c>
       <c r="J14">
-        <v>7.352642398340429</v>
+        <v>7.469314180157773</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>6.177624139916294</v>
+        <v>9.379267810849385</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>5.675377902233066</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>6.162496458663722</v>
       </c>
       <c r="O14">
-        <v>16.5051033481232</v>
+        <v>0</v>
       </c>
       <c r="P14">
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>11.20819558677607</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>16.56462036405388</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>10.9619885071215</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>26.79887695445091</v>
+        <v>26.78678722726429</v>
       </c>
       <c r="C15">
-        <v>19.43263934923661</v>
+        <v>19.49057638111589</v>
       </c>
       <c r="D15">
-        <v>6.344216728083082</v>
+        <v>6.3960429385042</v>
       </c>
       <c r="E15">
-        <v>7.71500744455129</v>
+        <v>7.677415818144246</v>
       </c>
       <c r="F15">
-        <v>16.01611731450912</v>
+        <v>15.70941960697472</v>
       </c>
       <c r="G15">
-        <v>15.54116559728803</v>
+        <v>16.06259759300999</v>
       </c>
       <c r="H15">
-        <v>6.691705677010121</v>
+        <v>6.685097044826155</v>
       </c>
       <c r="I15">
-        <v>3.092674866952561</v>
+        <v>3.095283844390202</v>
       </c>
       <c r="J15">
-        <v>7.32756550721999</v>
+        <v>7.499339756196381</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>6.203864909924421</v>
+        <v>9.390310776315651</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>5.693699607434634</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>6.19021279000853</v>
       </c>
       <c r="O15">
-        <v>16.31308485623677</v>
+        <v>0</v>
       </c>
       <c r="P15">
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>11.12512889447938</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>16.36648688855841</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>10.91341731004015</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>25.96092399119708</v>
+        <v>25.9588591027433</v>
       </c>
       <c r="C16">
-        <v>18.90274287174089</v>
+        <v>18.94169467093181</v>
       </c>
       <c r="D16">
-        <v>6.279440975091735</v>
+        <v>6.304650330537613</v>
       </c>
       <c r="E16">
-        <v>7.721420608919165</v>
+        <v>7.695825895723139</v>
       </c>
       <c r="F16">
-        <v>16.07488094683303</v>
+        <v>15.90885073323383</v>
       </c>
       <c r="G16">
-        <v>15.58179681293823</v>
+        <v>15.31597410308688</v>
       </c>
       <c r="H16">
-        <v>6.440648949230023</v>
+        <v>6.443226017881516</v>
       </c>
       <c r="I16">
-        <v>2.991964366641789</v>
+        <v>3.010320224665255</v>
       </c>
       <c r="J16">
-        <v>7.408982368100052</v>
+        <v>7.785070832029373</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>6.179907344253865</v>
+        <v>9.484328711705418</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>5.911601367362294</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>6.170418097912123</v>
       </c>
       <c r="O16">
-        <v>15.8878639369773</v>
+        <v>0</v>
       </c>
       <c r="P16">
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>11.24198728045981</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>15.93194063546427</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>11.12965084222173</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>25.36652080779205</v>
+        <v>25.36768233681402</v>
       </c>
       <c r="C17">
-        <v>18.51374005254763</v>
+        <v>18.57970706790827</v>
       </c>
       <c r="D17">
-        <v>6.422752167850635</v>
+        <v>6.442498297149044</v>
       </c>
       <c r="E17">
-        <v>7.843968523663852</v>
+        <v>7.825663043219901</v>
       </c>
       <c r="F17">
-        <v>16.52994623130871</v>
+        <v>16.3952739645053</v>
       </c>
       <c r="G17">
-        <v>16.14758414595938</v>
+        <v>15.52863252584221</v>
       </c>
       <c r="H17">
-        <v>5.689318150895661</v>
+        <v>5.691080357995983</v>
       </c>
       <c r="I17">
-        <v>2.934820327636638</v>
+        <v>2.96188147957714</v>
       </c>
       <c r="J17">
-        <v>7.538332021014614</v>
+        <v>7.996544433379755</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>6.111326761436054</v>
+        <v>9.571037175888808</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>6.080568521400854</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>6.103368637469439</v>
       </c>
       <c r="O17">
-        <v>15.8934032460196</v>
+        <v>0</v>
       </c>
       <c r="P17">
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>11.52266495582499</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>15.94175452057537</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>11.4300344283497</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>24.92923211958153</v>
+        <v>24.92832635847298</v>
       </c>
       <c r="C18">
-        <v>18.17472627311024</v>
+        <v>18.31692483347567</v>
       </c>
       <c r="D18">
-        <v>6.764730837944279</v>
+        <v>6.790664953588611</v>
       </c>
       <c r="E18">
-        <v>8.226275763367653</v>
+        <v>8.211748694246355</v>
       </c>
       <c r="F18">
-        <v>17.40355922081488</v>
+        <v>17.23640273999135</v>
       </c>
       <c r="G18">
-        <v>17.26263069822423</v>
+        <v>16.4435477363971</v>
       </c>
       <c r="H18">
-        <v>4.44194861157886</v>
+        <v>4.440048915126157</v>
       </c>
       <c r="I18">
-        <v>2.906363309822659</v>
+        <v>2.936240774421381</v>
       </c>
       <c r="J18">
-        <v>7.731208240030482</v>
+        <v>8.206478973054253</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>6.070488122348302</v>
+        <v>9.679097288316605</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>6.245481596395025</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>6.061422829460213</v>
       </c>
       <c r="O18">
-        <v>16.26596854844774</v>
+        <v>0</v>
       </c>
       <c r="P18">
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>11.99411761068916</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>16.33077485868186</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>11.87475997249194</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>24.654026312254</v>
+        <v>24.64725364633863</v>
       </c>
       <c r="C19">
-        <v>17.98262078632185</v>
+        <v>18.23289771807775</v>
       </c>
       <c r="D19">
-        <v>7.254845557658437</v>
+        <v>7.293720970616824</v>
       </c>
       <c r="E19">
-        <v>8.969139084988816</v>
+        <v>8.956058935337339</v>
       </c>
       <c r="F19">
-        <v>18.52060422417213</v>
+        <v>18.28238571393029</v>
       </c>
       <c r="G19">
-        <v>18.66076072953641</v>
+        <v>17.70796746421727</v>
       </c>
       <c r="H19">
-        <v>3.062614100220578</v>
+        <v>3.059668379118623</v>
       </c>
       <c r="I19">
-        <v>2.913793941709528</v>
+        <v>2.943928102913486</v>
       </c>
       <c r="J19">
-        <v>7.953693719949954</v>
+        <v>8.409292499926007</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>6.163691391516301</v>
+        <v>9.80303234784779</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>6.410245237410741</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>6.150084842048279</v>
       </c>
       <c r="O19">
-        <v>16.91199859335168</v>
+        <v>0</v>
       </c>
       <c r="P19">
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>12.56279482816863</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>17.00060771033105</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>12.3884830515036</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>24.8642325170163</v>
+        <v>24.84121425039647</v>
       </c>
       <c r="C20">
-        <v>18.07975819354778</v>
+        <v>18.52409299438384</v>
       </c>
       <c r="D20">
-        <v>8.106162458967022</v>
+        <v>8.177497766798879</v>
       </c>
       <c r="E20">
-        <v>10.5242205267863</v>
+        <v>10.51043839815813</v>
       </c>
       <c r="F20">
-        <v>20.3391339241697</v>
+        <v>19.91903319460148</v>
       </c>
       <c r="G20">
-        <v>20.92273378203271</v>
+        <v>20.01406518586257</v>
       </c>
       <c r="H20">
-        <v>2.063242848105945</v>
+        <v>2.05133178450494</v>
       </c>
       <c r="I20">
-        <v>3.004802045970254</v>
+        <v>3.023965101557149</v>
       </c>
       <c r="J20">
-        <v>8.274378323515206</v>
+        <v>8.584530934099384</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>6.586861307327762</v>
+        <v>9.93221448788619</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>6.609625440568538</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>6.558726770652627</v>
       </c>
       <c r="O20">
-        <v>18.23691151915221</v>
+        <v>0</v>
       </c>
       <c r="P20">
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>13.44022269817682</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>18.36861522219672</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>13.12680255268282</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>26.31759229477164</v>
+        <v>26.27255576650206</v>
       </c>
       <c r="C21">
-        <v>19.00302619288663</v>
+        <v>19.5243166078853</v>
       </c>
       <c r="D21">
-        <v>8.473851681644829</v>
+        <v>8.620137150625752</v>
       </c>
       <c r="E21">
-        <v>10.93869268007793</v>
+        <v>10.93095435396696</v>
       </c>
       <c r="F21">
-        <v>20.871957264475</v>
+        <v>20.07085054907595</v>
       </c>
       <c r="G21">
-        <v>21.61051993582794</v>
+        <v>22.32973562085346</v>
       </c>
       <c r="H21">
-        <v>2.323492037761653</v>
+        <v>2.291410305236936</v>
       </c>
       <c r="I21">
-        <v>3.198304438148182</v>
+        <v>3.187826572830445</v>
       </c>
       <c r="J21">
-        <v>8.263998013996716</v>
+        <v>7.903363937610627</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>6.69977817032375</v>
+        <v>9.66797262629726</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>6.365186011604631</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>6.651571860216563</v>
       </c>
       <c r="O21">
-        <v>19.30417128001413</v>
+        <v>0</v>
       </c>
       <c r="P21">
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>13.57491054873321</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>19.46265202438027</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>12.97070940960526</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>27.23902270484827</v>
+        <v>27.18039545546863</v>
       </c>
       <c r="C22">
-        <v>19.55050772284891</v>
+        <v>20.11052453288873</v>
       </c>
       <c r="D22">
-        <v>8.667550569680294</v>
+        <v>8.865558526209638</v>
       </c>
       <c r="E22">
-        <v>11.12728661132568</v>
+        <v>11.12579498972827</v>
       </c>
       <c r="F22">
-        <v>21.17511530085988</v>
+        <v>20.11050100079032</v>
       </c>
       <c r="G22">
-        <v>22.02606147834043</v>
+        <v>23.9201354920826</v>
       </c>
       <c r="H22">
-        <v>2.484863472870867</v>
+        <v>2.440058978128594</v>
       </c>
       <c r="I22">
-        <v>3.317445469246131</v>
+        <v>3.28694128779963</v>
       </c>
       <c r="J22">
-        <v>8.254636201474771</v>
+        <v>7.497035803040361</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>6.74787051913772</v>
+        <v>9.504810445837414</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>6.210379650975641</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>6.687007299025143</v>
       </c>
       <c r="O22">
-        <v>19.91882047816946</v>
+        <v>0</v>
       </c>
       <c r="P22">
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>13.65407578364414</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>20.09268933161783</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>12.84451166289053</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>26.75386572487895</v>
+        <v>26.70285017746084</v>
       </c>
       <c r="C23">
-        <v>19.2169424228216</v>
+        <v>19.76396934161772</v>
       </c>
       <c r="D23">
-        <v>8.559591128949041</v>
+        <v>8.722551343426289</v>
       </c>
       <c r="E23">
-        <v>11.0272786053583</v>
+        <v>11.02018136942319</v>
       </c>
       <c r="F23">
-        <v>21.04198395468234</v>
+        <v>20.15096187894121</v>
       </c>
       <c r="G23">
-        <v>21.8555793576335</v>
+        <v>22.92844310251924</v>
       </c>
       <c r="H23">
-        <v>2.399455261960311</v>
+        <v>2.362159336332276</v>
       </c>
       <c r="I23">
-        <v>3.2501331682143</v>
+        <v>3.229682710801197</v>
       </c>
       <c r="J23">
-        <v>8.268396107549217</v>
+        <v>7.77097981410014</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>6.723840416083206</v>
+        <v>9.60299156881044</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>6.318246234664492</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>6.670664284652808</v>
       </c>
       <c r="O23">
-        <v>19.58373467160364</v>
+        <v>0</v>
       </c>
       <c r="P23">
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>13.63370418061025</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>19.74927832441273</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>12.9592270209941</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>24.82646628010833</v>
+        <v>24.80279969865702</v>
       </c>
       <c r="C24">
-        <v>17.97994972975074</v>
+        <v>18.43650375403821</v>
       </c>
       <c r="D24">
-        <v>8.1490241678502</v>
+        <v>8.221674004606845</v>
       </c>
       <c r="E24">
-        <v>10.64056555913899</v>
+        <v>10.62695888135723</v>
       </c>
       <c r="F24">
-        <v>20.50658246018846</v>
+        <v>20.07826778794239</v>
       </c>
       <c r="G24">
-        <v>21.15478351709651</v>
+        <v>20.21842534071111</v>
       </c>
       <c r="H24">
-        <v>2.068609618553447</v>
+        <v>2.056701972991276</v>
       </c>
       <c r="I24">
-        <v>2.997456715982582</v>
+        <v>3.014630309175061</v>
       </c>
       <c r="J24">
-        <v>8.314685468732065</v>
+        <v>8.62465378207739</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>6.62872271910885</v>
+        <v>9.967602456453466</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>6.657882344752683</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>6.599812162588005</v>
       </c>
       <c r="O24">
-        <v>18.27858906274787</v>
+        <v>0</v>
       </c>
       <c r="P24">
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>13.54005400354226</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>18.4132448385813</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>13.2196363118375</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>22.56303860605294</v>
+        <v>22.56432071082097</v>
       </c>
       <c r="C25">
-        <v>16.55505944071882</v>
+        <v>16.82743352455631</v>
       </c>
       <c r="D25">
-        <v>7.686737829439856</v>
+        <v>7.745712743879429</v>
       </c>
       <c r="E25">
-        <v>10.20842359966922</v>
+        <v>10.2118710059082</v>
       </c>
       <c r="F25">
-        <v>19.96490563064698</v>
+        <v>19.651374588322</v>
       </c>
       <c r="G25">
-        <v>20.46329118255117</v>
+        <v>19.47055828031484</v>
       </c>
       <c r="H25">
-        <v>1.696680262416596</v>
+        <v>1.702866409963712</v>
       </c>
       <c r="I25">
-        <v>2.717492594681965</v>
+        <v>2.767375506063779</v>
       </c>
       <c r="J25">
-        <v>8.382931323117464</v>
+        <v>8.743317366736298</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>6.522705005874268</v>
+        <v>10.32831038050228</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>6.979629639945051</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>6.508224074882596</v>
       </c>
       <c r="O25">
-        <v>16.76280572265913</v>
+        <v>0</v>
       </c>
       <c r="P25">
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>13.48058617053305</v>
+        <v>16.86773678993477</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>13.23914240883288</v>
       </c>
     </row>
   </sheetData>
